--- a/GPP/scripts.xlsx
+++ b/GPP/scripts.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgVE5j3wDr/oQQ20wv+INiOFQg02w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgNjyjHFFLJxw2Cmr6Tf1Ov7ulMQA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Vocation</t>
   </si>
@@ -60,14 +60,83 @@
     <t>Brimstone Bug Keeper Cave</t>
   </si>
   <si>
-    <t>brimstone_bug_keeper/setup.json</t>
+    <t>brimstone_bug_keeper_cave/setup.json</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
+  <si>
+    <t>Hidden Crystal Spiders</t>
+  </si>
+  <si>
+    <t>crystal_spider_hidden/setup.json</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>Necromancer East Yalahar</t>
+  </si>
+  <si>
+    <t>necromancer_east_yalahar/setup.json</t>
+  </si>
+  <si>
+    <t>70+</t>
+  </si>
+  <si>
+    <t>Vandura Second Floor</t>
+  </si>
+  <si>
+    <t>vandura_-2/setup.json</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>100+</t>
+  </si>
+  <si>
+    <t>Braindeaths</t>
+  </si>
+  <si>
+    <t>braindeaths/setup.json</t>
+  </si>
+  <si>
+    <t>50.</t>
+  </si>
+  <si>
+    <t>Rorcs</t>
+  </si>
+  <si>
+    <t>rorc/setup.json</t>
+  </si>
+  <si>
+    <t>Lions Rock</t>
+  </si>
+  <si>
+    <t>lion_rock/setup.json</t>
+  </si>
+  <si>
+    <t>Bonelord Cave</t>
+  </si>
+  <si>
+    <t>bonelord/setup.json</t>
+  </si>
+  <si>
+    <t>130+</t>
+  </si>
+  <si>
+    <t>Alchemist Quarter</t>
+  </si>
+  <si>
+    <t>alchemist_quarter/setup.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -86,7 +155,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -119,22 +187,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -386,13 +455,13 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>1.0</v>
       </c>
       <c r="F2" s="2">
@@ -406,13 +475,13 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1.0</v>
       </c>
       <c r="F3" s="2">
@@ -423,13 +492,13 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3">
@@ -440,68 +509,164 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
@@ -547,9 +712,9 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>

--- a/GPP/scripts.xlsx
+++ b/GPP/scripts.xlsx
@@ -102,7 +102,7 @@
     <t>braindeaths/setup.json</t>
   </si>
   <si>
-    <t>50.</t>
+    <t>50+</t>
   </si>
   <si>
     <t>Rorcs</t>

--- a/GPP/scripts.xlsx
+++ b/GPP/scripts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Vocation</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Braindeaths</t>
   </si>
   <si>
-    <t>braindeaths/setup.json</t>
+    <t>braindeaths/setuprp.json</t>
   </si>
   <si>
     <t>50+</t>
@@ -130,6 +130,27 @@
   </si>
   <si>
     <t>alchemist_quarter/setup.json</t>
+  </si>
+  <si>
+    <t>180+</t>
+  </si>
+  <si>
+    <t>Quara Grotto</t>
+  </si>
+  <si>
+    <t>quara_grotto/setup.json</t>
+  </si>
+  <si>
+    <t>Liberty Bay Cults</t>
+  </si>
+  <si>
+    <t>liberty_bay_cults/setup.json</t>
+  </si>
+  <si>
+    <t>Tuhalu Quaras</t>
+  </si>
+  <si>
+    <t>luhalu_quaras/setup.json</t>
   </si>
 </sst>
 </file>
@@ -669,28 +690,64 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>

--- a/GPP/scripts.xlsx
+++ b/GPP/scripts.xlsx
@@ -7,16 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgNjyjHFFLJxw2Cmr6Tf1Ov7ulMQA=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Vocation</t>
   </si>
@@ -60,7 +55,7 @@
     <t>Brimstone Bug Keeper Cave</t>
   </si>
   <si>
-    <t>brimstone_bug_keeper_cave/setup.json</t>
+    <t>brimstonebug_keepercave/setup.json</t>
   </si>
   <si>
     <t>80+</t>
@@ -87,7 +82,7 @@
     <t>Vandura Second Floor</t>
   </si>
   <si>
-    <t>vandura_-2/setup.json</t>
+    <t>vandura_2nd/setup.json</t>
   </si>
   <si>
     <t>Paladin</t>
@@ -120,7 +115,7 @@
     <t>Bonelord Cave</t>
   </si>
   <si>
-    <t>bonelord/setup.json</t>
+    <t>bonelord_cave/setup.json</t>
   </si>
   <si>
     <t>130+</t>
@@ -150,7 +145,43 @@
     <t>Tuhalu Quaras</t>
   </si>
   <si>
-    <t>luhalu_quaras/setup.json</t>
+    <t>tuhalu_quaras/setup.json</t>
+  </si>
+  <si>
+    <t>250+</t>
+  </si>
+  <si>
+    <t>Brimstone Bug Surface</t>
+  </si>
+  <si>
+    <t>brimstonebug_surface/setup.json</t>
+  </si>
+  <si>
+    <t>240+</t>
+  </si>
+  <si>
+    <t>Chosen Snake</t>
+  </si>
+  <si>
+    <t>chosen_snake/setup.json</t>
+  </si>
+  <si>
+    <t>120+</t>
+  </si>
+  <si>
+    <t>Thais Ice Portal</t>
+  </si>
+  <si>
+    <t>thais_ice_portal/setup.json</t>
+  </si>
+  <si>
+    <t>20+</t>
+  </si>
+  <si>
+    <t>Zombie Liberty Bay</t>
+  </si>
+  <si>
+    <t>zombie_lb/setup.json</t>
   </si>
 </sst>
 </file>
@@ -208,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -224,8 +255,6 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -750,36 +779,84 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/GPP/scripts.xlsx
+++ b/GPP/scripts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Vocation</t>
   </si>
@@ -43,7 +43,7 @@
     <t>rotworm_darashia_north/setup.json</t>
   </si>
   <si>
-    <t>Rotworm Darashia North-east</t>
+    <t>Rotworm Darashia North-East</t>
   </si>
   <si>
     <t>rotworm_darashia_north_east/setup.json</t>
@@ -76,9 +76,6 @@
     <t>necromancer_east_yalahar/setup.json</t>
   </si>
   <si>
-    <t>70+</t>
-  </si>
-  <si>
     <t>Vandura Second Floor</t>
   </si>
   <si>
@@ -127,7 +124,7 @@
     <t>alchemist_quarter/setup.json</t>
   </si>
   <si>
-    <t>180+</t>
+    <t>200+</t>
   </si>
   <si>
     <t>Quara Grotto</t>
@@ -175,20 +172,23 @@
     <t>thais_ice_portal/setup.json</t>
   </si>
   <si>
-    <t>20+</t>
+    <t>23+</t>
   </si>
   <si>
     <t>Zombie Liberty Bay</t>
   </si>
   <si>
     <t>zombie_lb/setup.json</t>
+  </si>
+  <si>
+    <t>necromancer_east_yalahar/setuprp.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -207,6 +207,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -239,20 +240,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -525,7 +532,7 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -542,13 +549,13 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3">
@@ -559,306 +566,325 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>3.0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>2.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="5">
         <v>1.0</v>
       </c>
-      <c r="F7" s="4">
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="F10" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4">
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="8">
         <v>3.0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F20" s="8">
         <v>2.0</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>

--- a/GPP/scripts.xlsx
+++ b/GPP/scripts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>Vocation</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>necromancer_east_yalahar/setuprp.json</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>70+</t>
+  </si>
+  <si>
+    <t>crystal_spider_hidden/setupMage.json</t>
   </si>
 </sst>
 </file>
@@ -885,7 +894,26 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2.0</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>

--- a/GPP/scripts.xlsx
+++ b/GPP/scripts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Vocation</t>
   </si>
@@ -154,9 +154,6 @@
     <t>brimstonebug_surface/setup.json</t>
   </si>
   <si>
-    <t>240+</t>
-  </si>
-  <si>
     <t>Chosen Snake</t>
   </si>
   <si>
@@ -187,10 +184,19 @@
     <t>Mage</t>
   </si>
   <si>
-    <t>70+</t>
-  </si>
-  <si>
     <t>crystal_spider_hidden/setupMage.json</t>
+  </si>
+  <si>
+    <t>liberty_bay_cults/setupek.json</t>
+  </si>
+  <si>
+    <t>8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotworm Darashia North </t>
+  </si>
+  <si>
+    <t>rotworm_darashia_north/setupmage.json</t>
   </si>
 </sst>
 </file>
@@ -819,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="5">
         <v>4.0</v>
@@ -839,13 +845,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E18" s="7">
         <v>3.0</v>
@@ -859,13 +865,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="E19" s="5">
         <v>1.0</v>
@@ -885,7 +891,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="8">
         <v>3.0</v>
@@ -896,16 +902,16 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="8">
         <v>3.0</v>
@@ -914,8 +920,46 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>

--- a/GPP/scripts.xlsx
+++ b/GPP/scripts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Vocation</t>
   </si>
@@ -197,6 +197,39 @@
   </si>
   <si>
     <t>rotworm_darashia_north/setupmage.json</t>
+  </si>
+  <si>
+    <t>Krailos Spider Cave -1</t>
+  </si>
+  <si>
+    <t>krailos_spidercave_-1/setup.json</t>
+  </si>
+  <si>
+    <t>Mutated Rats Arena Quarter</t>
+  </si>
+  <si>
+    <t>mutatedrats_arena/setup.json</t>
+  </si>
+  <si>
+    <t>Quara Scouts Hidden</t>
+  </si>
+  <si>
+    <t>quarascouts_hidden/setup.json</t>
+  </si>
+  <si>
+    <t>30+</t>
+  </si>
+  <si>
+    <t>Tortoise Fenrock</t>
+  </si>
+  <si>
+    <t>tortoise_fenrock/setup.json</t>
+  </si>
+  <si>
+    <t>Corym Venore -2 South</t>
+  </si>
+  <si>
+    <t>corym_venore_-2south</t>
   </si>
 </sst>
 </file>
@@ -960,11 +993,106 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>

--- a/GPP/scripts.xlsx
+++ b/GPP/scripts.xlsx
@@ -229,14 +229,14 @@
     <t>Corym Venore -2 South</t>
   </si>
   <si>
-    <t>corym_venore_-2south</t>
+    <t>corym_venore_-2south/setup.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -255,7 +255,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -288,26 +287,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -914,70 +910,70 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="4">
         <v>3.0</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="4">
         <v>3.0</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="4">
         <v>3.0</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -986,110 +982,110 @@
       <c r="D23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="4">
         <v>1.0</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="4">
         <v>2.0</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="4">
         <v>1.0</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="4">
         <v>2.0</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="4">
         <v>3.0</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="4">
         <v>2.0</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="4">
         <v>3.0</v>
       </c>
     </row>
